--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY-PC\Desktop\titip indah\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Backlog Item Description</t>
   </si>
@@ -41,39 +31,45 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Description Task</t>
+  </si>
+  <si>
     <t>Mencari Jurnal Utama dan Pendukung</t>
   </si>
   <si>
+    <t>Indah Rezki Ananda</t>
+  </si>
+  <si>
     <t>Mencari dataset</t>
   </si>
   <si>
+    <t>Nico Yogi Syahputro</t>
+  </si>
+  <si>
+    <t>Membuat repository</t>
+  </si>
+  <si>
+    <t>Preprocessing data</t>
+  </si>
+  <si>
+    <t>Modelling</t>
+  </si>
+  <si>
+    <t>Nico Yogi Syahputro, Indah Rezki Ananda</t>
+  </si>
+  <si>
+    <t>Model interface</t>
+  </si>
+  <si>
+    <t>Model Evaluation</t>
+  </si>
+  <si>
+    <t>Predict data</t>
+  </si>
+  <si>
     <t>Membuat desain database</t>
   </si>
   <si>
-    <t>Preprocessing data</t>
-  </si>
-  <si>
-    <t>Modelling</t>
-  </si>
-  <si>
-    <t>Model interface</t>
-  </si>
-  <si>
-    <t>Model Evaluation</t>
-  </si>
-  <si>
-    <t>Predict data</t>
-  </si>
-  <si>
-    <t>Indah Rezki Ananda</t>
-  </si>
-  <si>
-    <t>Membuat repository</t>
-  </si>
-  <si>
-    <t>Nico Yogi Syahputro</t>
-  </si>
-  <si>
     <t>Mencari template website</t>
   </si>
   <si>
@@ -87,24 +83,24 @@
   </si>
   <si>
     <t>Testing web</t>
-  </si>
-  <si>
-    <t>Description Task</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
@@ -113,19 +109,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -135,41 +468,327 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -218,7 +837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,7 +872,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,57 +1046,53 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="26.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="26.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="36.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="15.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="15.75" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="2" ht="15.75" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
         <v>3</v>
       </c>
       <c r="C2" s="4">
@@ -486,16 +1101,16 @@
       <c r="D2" s="4">
         <v>44488</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="4">
@@ -504,16 +1119,16 @@
       <c r="D3" s="4">
         <v>44488</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="4">
@@ -522,16 +1137,16 @@
       <c r="D4" s="4">
         <v>44489</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="4">
@@ -540,16 +1155,16 @@
       <c r="D5" s="4">
         <v>44493</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="4">
@@ -558,16 +1173,16 @@
       <c r="D6" s="4">
         <v>44498</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" s="4">
@@ -576,16 +1191,16 @@
       <c r="D7" s="4">
         <v>44503</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="4">
@@ -594,16 +1209,16 @@
       <c r="D8" s="4">
         <v>44507</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" s="4">
@@ -612,120 +1227,97 @@
       <c r="D9" s="4">
         <v>44511</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
-        <v>44508</v>
-      </c>
-      <c r="D10" s="4">
-        <v>44508</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
-        <v>44509</v>
-      </c>
-      <c r="D11" s="4">
-        <v>44509</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
-        <v>44510</v>
-      </c>
-      <c r="D12" s="4">
-        <v>44517</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
         <v>14</v>
       </c>
-      <c r="C13" s="4">
-        <v>44517</v>
-      </c>
-      <c r="D13" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
-        <v>44532</v>
-      </c>
-      <c r="D14" s="4">
-        <v>44534</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="4">
-        <v>44535</v>
-      </c>
-      <c r="D15" s="4">
-        <v>44537</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nico\praktikum\Praktikum-PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E0CE9C-CE3F-4FE3-BC0A-AACC6E7E487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AA59BE-7BE7-4391-B53E-1A1A440F6E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Backlog Item Description</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Solusi</t>
+  </si>
+  <si>
+    <t>on going</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -284,9 +287,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -576,7 +579,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -744,7 +747,9 @@
       <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -764,7 +769,9 @@
       <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -784,7 +791,9 @@
       <c r="G9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="A10" s="2" t="s">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\Praktikum-PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86856354-0D72-4426-A842-F2FAEA555D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459FBE81-2C1B-46BB-986B-21562B2E37CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Backlog Item Description</t>
   </si>
@@ -64,12 +64,6 @@
     <t>Nico Yogi Syahputro, Indah Rezki Ananda</t>
   </si>
   <si>
-    <t>Model interface</t>
-  </si>
-  <si>
-    <t>Model Evaluation</t>
-  </si>
-  <si>
     <t>Predict data</t>
   </si>
   <si>
@@ -95,6 +89,27 @@
   </si>
   <si>
     <t>On Going</t>
+  </si>
+  <si>
+    <t>Preprocessing data dengan augmentasi</t>
+  </si>
+  <si>
+    <t>modelling(convo,pooling,dropout,variasi lr)</t>
+  </si>
+  <si>
+    <t>Modul 2</t>
+  </si>
+  <si>
+    <t>Modul 3</t>
+  </si>
+  <si>
+    <t>Modul 1</t>
+  </si>
+  <si>
+    <t>Modul 4</t>
+  </si>
+  <si>
+    <t>Modul 5</t>
   </si>
 </sst>
 </file>
@@ -102,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -121,15 +136,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,21 +197,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -459,7 +548,7 @@
     <col min="6" max="6" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +568,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6">
@@ -496,11 +585,15 @@
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6">
@@ -516,11 +609,13 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6">
@@ -536,11 +631,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6">
@@ -556,11 +653,15 @@
         <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="6">
@@ -576,12 +677,14 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -596,12 +699,16 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="6">
         <v>3</v>
@@ -616,12 +723,14 @@
         <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="6">
         <v>3</v>
@@ -636,50 +745,60 @@
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -687,7 +806,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -695,7 +814,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -703,7 +822,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -712,6 +831,13 @@
       <c r="F15" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G2:H4"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\Praktikum-PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459FBE81-2C1B-46BB-986B-21562B2E37CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA43283E-BFA5-42EA-A1E3-5B611B73F8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Backlog Item Description</t>
   </si>
@@ -88,9 +88,6 @@
     <t>14 Desember 2021</t>
   </si>
   <si>
-    <t>On Going</t>
-  </si>
-  <si>
     <t>Preprocessing data dengan augmentasi</t>
   </si>
   <si>
@@ -110,6 +107,18 @@
   </si>
   <si>
     <t>Modul 5</t>
+  </si>
+  <si>
+    <t>flask heroku</t>
+  </si>
+  <si>
+    <t>20 Desember 2021</t>
+  </si>
+  <si>
+    <t>21 Desember 2021</t>
+  </si>
+  <si>
+    <t>modul 6</t>
   </si>
 </sst>
 </file>
@@ -136,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -256,6 +271,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,7 +559,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -588,7 +612,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="13"/>
     </row>
@@ -656,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="15"/>
     </row>
@@ -684,7 +708,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -702,13 +726,13 @@
         <v>18</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6">
         <v>3</v>
@@ -770,7 +794,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="19"/>
     </row>
@@ -791,20 +815,36 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3"/>
@@ -831,7 +871,8 @@
       <c r="F15" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="G2:H4"/>
     <mergeCell ref="G5:H6"/>
     <mergeCell ref="G7:H9"/>
